--- a/contenedores/airflow/mantenedores/tabla_banco_126.xlsx
+++ b/contenedores/airflow/mantenedores/tabla_banco_126.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fepip\OneDrive\Felipe\Projects\CMF\finReport\contenedores\airflow\mantenedores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB6EBCF-A343-4194-9CDC-3F970E099B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EAFF0C-752D-41F8-B9AD-A98A9AFF4DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="principal" sheetId="1" r:id="rId1"/>
-    <sheet name="relacion" sheetId="2" r:id="rId2"/>
+    <sheet name="tabla_banco_126" sheetId="1" r:id="rId1"/>
+    <sheet name="tabla_banco_126_rel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>cod</t>
   </si>
@@ -34,126 +34,84 @@
     <t>tipo_operacion</t>
   </si>
   <si>
-    <t>definicion</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
     <t>Créditos comerciales</t>
   </si>
   <si>
-    <t>Todos aquellos créditos que no corresponden a las operaciones que se indican a continuación.</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
     <t>Créditos de consumo en cuotas</t>
   </si>
   <si>
-    <t>Comprende los créditos pagaderos en cuotas cuyos deudores son personas naturales y que se otorgan para financiar bienes de consumo o el pago de servicios. Comprende también créditos de consumo cuando posean una cuota pendiente. No corresponde a créditos por tarjetas de crédito (código 07) ni uso de líneas de crédito o sobregiro (código 08).</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
     <t>Créditos para estudios superiores Ley N°20.027</t>
   </si>
   <si>
-    <t>Comprende aquellos concedidos para el financiamiento de estudios superiores otorgados de acuerdo con la Ley N°20.027 (CAE).</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
     <t>Créditos educacionales con garantía CORFO</t>
   </si>
   <si>
-    <t>Corresponde a préstamos estudiantiles otorgados con algún tipo de garantía de CORFO.</t>
-  </si>
-  <si>
     <t>05</t>
   </si>
   <si>
     <t>Otros créditos para estudios superiores</t>
   </si>
   <si>
-    <t>Comprende todos los demás créditos otorgados para el financiamiento de estudios superiores distintos a los de la Ley N° 20.027 y de aquellos con garantía CORFO.</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
     <t>Créditos para la salud</t>
   </si>
   <si>
-    <t>Corresponde a deudas contraídas con prestadores de salud públicos o privados y empresas relacionadas, sean instituciones financieras, casas comerciales u otras similares, en el marco de una atención o acción de salud ambulatoria, hospitalaria o de emergencia sean éstas consultas, procedimientos, exámenes, programas, cirugías u operaciones.</t>
-  </si>
-  <si>
     <t>07</t>
   </si>
   <si>
     <t>Créditos provenientes de la utilización de tarjetas de crédito</t>
   </si>
   <si>
-    <t>Comprende los créditos provenientes del uso de tarjetas de crédito cuyos deudores son personas naturales y que se otorgan para financiar bienes de consumo o el pago de servicios.</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
     <t>Créditos con líneas de crédito o sobregiros en cuentas corrientes</t>
   </si>
   <si>
-    <t>Comprende los créditos provenientes del uso de líneas de crédito cuyos deudores son personas naturales y que se otorgan para financiar bienes de consumo o el pago de servicios.</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>Otros créditos de consumo</t>
   </si>
   <si>
-    <t>Comprende los créditos cuyos deudores son personas naturales y que se otorgan para financiar bienes de consumo o el pago de servicios no informados en los códigos precedentes.</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>Créditos para vivienda</t>
   </si>
   <si>
-    <t>Corresponde a créditos que se otorgan a personas naturales para adquisición, ampliación, reparación o construcción de su vivienda. Comprende los préstamos en letras de crédito, con mutuos hipotecarios endosables u otros con aquellas características. Incluye los créditos de enlace que se hubieren otorgado antes del perfeccionamiento de los mutuos y los créditos complementarios destinados a la adquisición, ampliación, reparación o construcción de la vivienda.</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>Operaciones financieras</t>
   </si>
   <si>
-    <t>Corresponde a contratos con pacto de retroventa y obligaciones por préstamos de valores.</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>Instrumentos de deuda adquiridos</t>
   </si>
   <si>
-    <t>Corresponde a las deudas de los emisores de los instrumentos que para efectos contables forman parte de la cartera de negociación, disponibles para la venta o inversiones al vencimiento.</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
     <t>Créditos comerciales subrogados por el pago de garantías estatales</t>
   </si>
   <si>
-    <t>Corresponde a la porción de aquellos créditos en que se hizo efectivo el pago de una garantía estatal (FOGAPE y FOGAES), debiendo ser informados los importes impagos correspondientes a la subrogación que se origina por tal motivo, cuando la institución financiera mantiene la responsabilidad de su cobranza. La fracción no garantizada se continúa informando con el código originalmente asignado.</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -178,61 +136,40 @@
     <t>Leasing consumo</t>
   </si>
   <si>
-    <t>Obligaciones que a la fecha de la información mantienen los arrendatarios que hayan pactado operaciones de leasing con el reportante cuando este sea persona natural y no sea en relación a una vivienda.</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
     <t>Leasing vivienda</t>
   </si>
   <si>
-    <t>Obligaciones que a la fecha de la información mantienen los arrendatarios que hayan pactado operaciones de leasing con el reportante cuando este sea persona natural sea en relación a una vivienda.</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
     <t>Leasing comercial</t>
   </si>
   <si>
-    <t>Obligaciones que a la fecha de la información mantienen los arrendatarios que hayan pactado operaciones de leasing con el reportante cuando este no sea una persona natural.</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
     <t>Créditos contingentes</t>
   </si>
   <si>
-    <t>Corresponde a los créditos contingentes con excepción de las líneas de crédito y otros contingentes que se informan con los códigos 42, 43 y 44.</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
     <t>Cupos de líneas de crédito de libre disposición</t>
   </si>
   <si>
-    <t>Corresponde a los créditos aprobados que pueden ser utilizados por la sola voluntad del cliente como los sobregiros pactados en cuenta corriente. Se trata sólo del monto correspondiente a los importes no utilizados, en que la institución está contractualmente obligada a admitir el crédito.</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
     <t>Cupos de tarjetas de crédito</t>
   </si>
   <si>
-    <t>Corresponde a los cupos disponibles para tarjetas de crédito. Se entiende que el cupo corresponde sólo al monto no utilizado, debiendo incluirse en consecuencia como créditos (de consumo o comerciales, según corresponda) los montos ya utilizados, sea que la entidad reportante haya pagado o no las operaciones efectuadas con la tarjeta a la fecha a que se refiere la información.</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
     <t>Créditos contingentes para estudios superiores</t>
-  </si>
-  <si>
-    <t>Corresponde a los créditos contingentes asociados a préstamos educacionales de la Ley N°20.027 u otros que generen una obligación contingente.</t>
   </si>
   <si>
     <t>cod_entidad</t>
@@ -279,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -292,12 +229,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,281 +509,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="80" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="61.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="61.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="85.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="16" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="49.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="73.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C14:C17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -873,194 +734,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
